--- a/data/trans_dic/P56$pareja-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4277978239407698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4852729037692619</v>
+        <v>0.485272903769262</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1257677772090516</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.260256911734845</v>
+        <v>0.2560213910000904</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3654639130237948</v>
+        <v>0.3677865828520789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2439532011940213</v>
+        <v>0.2428620474100487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.314060198015913</v>
+        <v>0.321922869299198</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04953804311692449</v>
+        <v>0.04180523598910178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04588606175699476</v>
+        <v>0.04583678632631241</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05848904909509813</v>
+        <v>0.04809048476212067</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04922506978126075</v>
+        <v>0.04960162386417973</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1457323808754006</v>
+        <v>0.1409322234525502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1566829812260145</v>
+        <v>0.1582327331848669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1251284698462536</v>
+        <v>0.1318050460119059</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1301787465681907</v>
+        <v>0.1348440994174594</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6674646434385113</v>
+        <v>0.6698385521319025</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7495276747154447</v>
+        <v>0.7777183138643576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6404797351686831</v>
+        <v>0.6439789511631809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6567909880159829</v>
+        <v>0.6462425752138021</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2567291940248503</v>
+        <v>0.2420272782091001</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1915821935587415</v>
+        <v>0.2032058072859657</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2510456876407593</v>
+        <v>0.2425583203950605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1467923647822021</v>
+        <v>0.1508351810126686</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3359033139699054</v>
+        <v>0.3337221032294101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.325019119606772</v>
+        <v>0.3369618610148212</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3122062449744258</v>
+        <v>0.3113205080669867</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.254904860626846</v>
+        <v>0.2579982169842535</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1756604128542834</v>
+        <v>0.1272293920614839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1486259136075424</v>
+        <v>0.1354099243750101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3597925692843514</v>
+        <v>0.3619040452293791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1827003472609876</v>
+        <v>0.1868061281517382</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06875602217609447</v>
+        <v>0.06796881828474553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04790388545948192</v>
+        <v>0.04881178069528598</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1323040369785544</v>
+        <v>0.1282795735675235</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0929501062500572</v>
+        <v>0.09053308473344746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1138705273244039</v>
+        <v>0.1126354929348767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1581442667181435</v>
+        <v>0.161456772724916</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1677476168517508</v>
+        <v>0.1657934478280674</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6224897427774839</v>
+        <v>0.6185922708275016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6170469914974887</v>
+        <v>0.5867526811653573</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7740112201645659</v>
+        <v>0.7775077940711024</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.415714883752028</v>
+        <v>0.4198086428214323</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2521690046938433</v>
+        <v>0.2542064959509925</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2361671597240924</v>
+        <v>0.2254390040689975</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2733320496062838</v>
+        <v>0.2809843962744104</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.244685037654552</v>
+        <v>0.2414062470658982</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3293326414018667</v>
+        <v>0.3271837490497821</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2772647544622729</v>
+        <v>0.2757433063579726</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3900420532776718</v>
+        <v>0.3995604507303535</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2703328864851702</v>
+        <v>0.269308597654268</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.108234616865572</v>
+        <v>0.1158689172111161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2030633058702798</v>
+        <v>0.1574189995945988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3627041732822425</v>
+        <v>0.3604264505482255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1674149166051481</v>
+        <v>0.1737521184215814</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1266633993039261</v>
+        <v>0.1218806204185049</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07478915203241901</v>
+        <v>0.07467535856830741</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09635437657040148</v>
+        <v>0.0873667518056578</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07414396652160407</v>
+        <v>0.07791049120659134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1750245117703919</v>
+        <v>0.1795069062350913</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1838690819703122</v>
+        <v>0.1746848018865262</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1363219548032949</v>
+        <v>0.1353624379026322</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7262901584283159</v>
+        <v>0.7382551939583484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6518249198218835</v>
+        <v>0.6371331393679833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8734877333357177</v>
+        <v>0.8760519048832216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4710905446249725</v>
+        <v>0.4901459064286928</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3104395282564488</v>
+        <v>0.2479700739551287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4146875935190162</v>
+        <v>0.4207039771724062</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3698701408711975</v>
+        <v>0.3798717772043488</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2271355469522594</v>
+        <v>0.2330323638942671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4349136771225184</v>
+        <v>0.4177840141568454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4399846890798813</v>
+        <v>0.4302821662889663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4648610114158864</v>
+        <v>0.4519941695217847</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2747200770337343</v>
+        <v>0.2737572699014068</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1042575010372233</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1728550468352202</v>
+        <v>0.1728550468352201</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3178564483055587</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1132297341659812</v>
+        <v>0.1141601935913047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2545161808089239</v>
+        <v>0.2437110567383655</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0953122818203482</v>
+        <v>0.09382331940121033</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04460715734814233</v>
+        <v>0.04507515269769685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08983506765564658</v>
+        <v>0.07974802543196627</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1760276342637023</v>
+        <v>0.1794233173957434</v>
       </c>
     </row>
     <row r="15">
@@ -1159,37 +1159,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.8932125415599314</v>
+        <v>0.8930683994987857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5653498186260257</v>
+        <v>0.5422522681833677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5985465441442274</v>
+        <v>0.5846951433456627</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3456148334498562</v>
+        <v>0.3488032580293792</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2904102723902281</v>
+        <v>0.338994193530746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2751000994586897</v>
+        <v>0.2801352778661509</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8502738192779823</v>
+        <v>0.7097573800612067</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3957251867768474</v>
+        <v>0.4174130170878774</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3587654018585582</v>
+        <v>0.344121134252648</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3506400730468132</v>
+        <v>0.3576486044314274</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2871520558060892</v>
+        <v>0.2880932905580035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3724476504711295</v>
+        <v>0.3627898766766268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06024713557485877</v>
+        <v>0.06306699360299726</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09846495612140607</v>
+        <v>0.09911267551958934</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09507381026772896</v>
+        <v>0.08829441414004084</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1201722021762422</v>
+        <v>0.1195749215942485</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1608555824434465</v>
+        <v>0.1556935450127808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1738482649642784</v>
+        <v>0.1724948826488474</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1873576125949103</v>
+        <v>0.1912260319222323</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1811603055481519</v>
+        <v>0.1806399244538626</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5681646637715156</v>
+        <v>0.5419176845019976</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5874176856676026</v>
+        <v>0.5952722714581993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2020099982934418</v>
+        <v>0.1959489550847777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2046771764436808</v>
+        <v>0.2011766714578541</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2140036217494505</v>
+        <v>0.2166505628264001</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.181503335047885</v>
+        <v>0.1832121377950106</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.295283619798665</v>
+        <v>0.2931211769057068</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2784676963554654</v>
+        <v>0.2800790573351315</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3040805321236168</v>
+        <v>0.3056980802960738</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2442955717135997</v>
+        <v>0.2434132306153196</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5790</v>
+        <v>5696</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9347</v>
+        <v>9407</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5857</v>
+        <v>5831</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7825</v>
+        <v>8021</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2422</v>
+        <v>2044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3832</v>
+        <v>3151</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3548</v>
+        <v>3575</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10368</v>
+        <v>10026</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14807</v>
+        <v>14953</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11202</v>
+        <v>11800</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12627</v>
+        <v>13080</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14850</v>
+        <v>14903</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19171</v>
+        <v>19892</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15377</v>
+        <v>15461</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16365</v>
+        <v>16102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12553</v>
+        <v>11834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13205</v>
+        <v>14006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16447</v>
+        <v>15891</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10581</v>
+        <v>10873</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23898</v>
+        <v>23742</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30715</v>
+        <v>31843</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27950</v>
+        <v>27871</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24726</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2476</v>
+        <v>1794</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3837</v>
+        <v>3496</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6493</v>
+        <v>6531</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7022</v>
+        <v>7180</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5261</v>
+        <v>5200</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2056</v>
+        <v>2095</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13327</v>
+        <v>12921</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3483</v>
+        <v>3393</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11652</v>
+        <v>11526</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9642</v>
+        <v>9844</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23344</v>
+        <v>23072</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8775</v>
+        <v>8720</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15930</v>
+        <v>15148</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13969</v>
+        <v>14032</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15979</v>
+        <v>16136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5895</v>
+        <v>5943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18069</v>
+        <v>17248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11732</v>
+        <v>12061</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24646</v>
+        <v>24316</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12342</v>
+        <v>12262</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28372</v>
+        <v>28216</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23781</v>
+        <v>24361</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>37621</v>
+        <v>37478</v>
       </c>
     </row>
     <row r="12">
@@ -1956,40 +1956,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1007</v>
+        <v>1078</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4210</v>
+        <v>3264</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4799</v>
+        <v>4769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3876</v>
+        <v>4023</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4951</v>
+        <v>4764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5557</v>
+        <v>5039</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1688</v>
+        <v>1774</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10470</v>
+        <v>10738</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10059</v>
+        <v>9557</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11019</v>
+        <v>10941</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6754</v>
+        <v>6866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13514</v>
+        <v>13210</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11558</v>
+        <v>11592</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10907</v>
+        <v>11348</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4180</v>
+        <v>3339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16208</v>
+        <v>16443</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15341</v>
+        <v>15756</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13100</v>
+        <v>13440</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9901</v>
+        <v>9511</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26319</v>
+        <v>25739</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25432</v>
+        <v>24728</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22205</v>
+        <v>22128</v>
       </c>
     </row>
     <row r="16">
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1812</v>
+        <v>1827</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5617</v>
+        <v>5378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3947</v>
+        <v>3885</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3301</v>
+        <v>2931</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11174</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="19">
@@ -2179,37 +2179,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9050</v>
+        <v>8680</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13209</v>
+        <v>12904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6780</v>
+        <v>6842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6024</v>
+        <v>7032</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11392</v>
+        <v>11600</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5373</v>
+        <v>4485</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10287</v>
+        <v>10851</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13185</v>
+        <v>12646</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22258</v>
+        <v>22702</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13343</v>
+        <v>13387</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26554</v>
+        <v>25865</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5497</v>
+        <v>5754</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20100</v>
+        <v>20232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16225</v>
+        <v>15068</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32674</v>
+        <v>32512</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22151</v>
+        <v>21440</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49137</v>
+        <v>48754</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45332</v>
+        <v>46268</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68926</v>
+        <v>68728</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26401</v>
+        <v>25181</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41880</v>
+        <v>42440</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18431</v>
+        <v>17878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41782</v>
+        <v>41067</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>36521</v>
+        <v>36973</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49350</v>
+        <v>49814</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40662</v>
+        <v>40364</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>78706</v>
+        <v>79162</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73573</v>
+        <v>73965</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>92947</v>
+        <v>92611</v>
       </c>
     </row>
     <row r="24">
